--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,16 +46,19 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>instead</t>
   </si>
   <si>
     <t>smaller</t>
@@ -64,9 +67,6 @@
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
@@ -76,6 +76,9 @@
     <t>broken</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
@@ -85,58 +88,67 @@
     <t>difficult</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>much</t>
+    <t>little</t>
   </si>
   <si>
     <t>one</t>
@@ -169,16 +181,16 @@
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>loves</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
@@ -551,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7475728155339806</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C7">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D7">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.53125</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7473118279569892</v>
+        <v>0.703125</v>
       </c>
       <c r="C8">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.5217391304347826</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6554621848739496</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.3663934426229508</v>
+        <v>0.369672131147541</v>
       </c>
       <c r="L9">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M9">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6418918918918919</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C10">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.3649425287356322</v>
+        <v>0.3443328550932568</v>
       </c>
       <c r="L10">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="M10">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.2916666666666667</v>
+        <v>0.2987551867219917</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>85</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5740740740740741</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.2863070539419087</v>
+        <v>0.275</v>
       </c>
       <c r="L12">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>344</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5101449275362319</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C13">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D13">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.2293577981651376</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L13">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>252</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,37 +1182,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5060240963855421</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C14">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>42</v>
       </c>
-      <c r="D14">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>41</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.2108433734939759</v>
+        <v>0.2140672782874618</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4526315789473684</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C15">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.1957671957671958</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4330708661417323</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.1244979919678715</v>
+        <v>0.1365461847389558</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4044943820224719</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.1042944785276074</v>
+        <v>0.09640666082383874</v>
       </c>
       <c r="L17">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1022</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3554502369668247</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C18">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,31 +1400,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.05263157894736842</v>
+        <v>0.05259740259740259</v>
       </c>
       <c r="L18">
         <v>81</v>
       </c>
       <c r="M18">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.34375</v>
+        <v>0.3910891089108911</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1446,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3118811881188119</v>
+        <v>0.3515625</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1464,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1472,13 +1484,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2991452991452991</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1490,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1498,13 +1510,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2628865979381443</v>
+        <v>0.3222748815165877</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1524,13 +1536,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2373417721518987</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1542,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>241</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1550,13 +1562,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2101910828025478</v>
+        <v>0.2373417721518987</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1568,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>124</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1576,13 +1588,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2062314540059347</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C25">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1594,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>535</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1602,13 +1614,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2056962025316456</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="C26">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1620,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>251</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1628,13 +1640,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.205607476635514</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1646,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>170</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1654,13 +1666,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2028985507246377</v>
+        <v>0.198813056379822</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1672,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>220</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1680,13 +1692,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.165</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1698,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1706,13 +1718,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1563876651982379</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="C30">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D30">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1724,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>383</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1732,25 +1744,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1498559077809798</v>
+        <v>0.1696035242290749</v>
       </c>
       <c r="C31">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D31">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>295</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1758,25 +1770,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1417004048582996</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>212</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1784,13 +1796,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1123595505617977</v>
+        <v>0.16</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1802,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>237</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1810,25 +1822,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.07248764415156507</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C34">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>563</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1836,25 +1848,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.07242990654205607</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E35">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>397</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1862,25 +1874,129 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.03802281368821293</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.08493150684931507</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>31</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.07907742998352553</v>
+      </c>
+      <c r="C38">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <v>49</v>
+      </c>
+      <c r="E38">
+        <v>0.02</v>
+      </c>
+      <c r="F38">
+        <v>0.98</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.0738255033557047</v>
+      </c>
+      <c r="C39">
+        <v>33</v>
+      </c>
+      <c r="D39">
         <v>35</v>
       </c>
-      <c r="E36">
-        <v>0.14</v>
-      </c>
-      <c r="F36">
-        <v>0.86</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>759</v>
+      <c r="E39">
+        <v>0.06</v>
+      </c>
+      <c r="F39">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.04562737642585551</v>
+      </c>
+      <c r="C40">
+        <v>36</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>0.12</v>
+      </c>
+      <c r="F40">
+        <v>0.88</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
